--- a/datasets/revisions_df.xlsx
+++ b/datasets/revisions_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1161"/>
+  <dimension ref="A1:F1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23669,6 +23669,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>3408</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1162" s="2" t="n">
+        <v>45801.56623842593</v>
+      </c>
+      <c r="D1162" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>15441</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>3407</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1163" s="2" t="n">
+        <v>45801.55300925926</v>
+      </c>
+      <c r="D1163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>3406</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1164" s="2" t="n">
+        <v>45801.54494212963</v>
+      </c>
+      <c r="D1164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>14896</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>3405</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1165" s="2" t="n">
+        <v>45801.53200231482</v>
+      </c>
+      <c r="D1165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>20021</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>3404</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>555</v>
+      </c>
+      <c r="C1166" s="2" t="n">
+        <v>45801.53</v>
+      </c>
+      <c r="D1166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>-73</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>3403</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>326</v>
+      </c>
+      <c r="C1167" s="2" t="n">
+        <v>45801.52984953704</v>
+      </c>
+      <c r="D1167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>-32</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>3401</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>273</v>
+      </c>
+      <c r="C1168" s="2" t="n">
+        <v>45799.87296296296</v>
+      </c>
+      <c r="D1168" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>3400</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>208</v>
+      </c>
+      <c r="C1169" s="2" t="n">
+        <v>45798.94920138889</v>
+      </c>
+      <c r="D1169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>-37</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>3399</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>269</v>
+      </c>
+      <c r="C1170" s="2" t="n">
+        <v>45798.8486574074</v>
+      </c>
+      <c r="D1170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
